--- a/src/main/resources/testData/userDetails.xlsx
+++ b/src/main/resources/testData/userDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>genderTitle</t>
   </si>
@@ -57,12 +57,6 @@
     <t>mobileNumber</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>30/08/1992</t>
-  </si>
-  <si>
     <t>15/10/1990</t>
   </si>
   <si>
@@ -93,31 +87,13 @@
     <t>NA</t>
   </si>
   <si>
-    <t>rick</t>
-  </si>
-  <si>
-    <t>dalton</t>
-  </si>
-  <si>
-    <t>rrd@gmail.com</t>
-  </si>
-  <si>
-    <t>Nashville</t>
-  </si>
-  <si>
-    <t>650 Grassmere Park</t>
-  </si>
-  <si>
-    <t>37211</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
     <t>productName</t>
   </si>
   <si>
     <t>T-shirts</t>
+  </si>
+  <si>
+    <t>hhk29@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -463,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -524,13 +500,13 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -538,31 +514,31 @@
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="I2" s="1">
         <v>20006</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1">
         <v>8888888888</v>
@@ -571,71 +547,22 @@
         <v>9999222267</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1">
-        <v>8888888888</v>
-      </c>
-      <c r="L3" s="1">
-        <v>9999222267</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
